--- a/12/Probability.xlsx
+++ b/12/Probability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anupam\base\12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD8B039-010C-4513-B1C6-CA842350C31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDA8D4D-F071-42D9-8A0B-50CF6B7CF6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{29554E18-B50E-4D0E-A32C-7666D94E0038}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>Measure of uncertainity of events in a random experiment</t>
   </si>
@@ -48,27 +48,6 @@
     <t>Conditional probability</t>
   </si>
   <si>
-    <t>probability of an event happening given that another event has happened</t>
-  </si>
-  <si>
-    <t>Bayer's Theorem is based on it</t>
-  </si>
-  <si>
-    <t>Multiplication rule</t>
-  </si>
-  <si>
-    <t>Independence of an event</t>
-  </si>
-  <si>
-    <t>Random variable</t>
-  </si>
-  <si>
-    <t>Probability distribution of random variable</t>
-  </si>
-  <si>
-    <t>mean variance of probability distribution</t>
-  </si>
-  <si>
     <t>Discrete probabity</t>
   </si>
   <si>
@@ -78,9 +57,6 @@
     <t>** examples are of the experiments having equal likelyhood</t>
   </si>
   <si>
-    <t>sample space</t>
-  </si>
-  <si>
     <t>if we have two events from same sample space, then does the information about occurance of one event affect the occurance of other event? (All outcomes equally likely)</t>
   </si>
   <si>
@@ -163,6 +139,60 @@
   </si>
   <si>
     <t xml:space="preserve">Let E and F be two events associated with sample space S. </t>
+  </si>
+  <si>
+    <t>Bayer's Theorem</t>
+  </si>
+  <si>
+    <t>Partition of Sample Space</t>
+  </si>
+  <si>
+    <t>toss of coin,  roll of die</t>
+  </si>
+  <si>
+    <t>{1,2,3,4,5,6}</t>
+  </si>
+  <si>
+    <t>{H,T}</t>
+  </si>
+  <si>
+    <t>Head appearing , or Number 2 in roll of a die</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>Independent Events</t>
+  </si>
+  <si>
+    <t>F:</t>
+  </si>
+  <si>
+    <t>Card drawn is an Ace</t>
+  </si>
+  <si>
+    <t>E:</t>
+  </si>
+  <si>
+    <t>Card drawn is a Spade</t>
+  </si>
+  <si>
+    <t>1/13</t>
+  </si>
+  <si>
+    <t>p(F)</t>
+  </si>
+  <si>
+    <t>p(F|E)</t>
+  </si>
+  <si>
+    <t>Probability that the card is Ace give that it is Spade</t>
+  </si>
+  <si>
+    <t>** So event the cardbeing a spade "E" has no impact in the probability of it being Ace "F"</t>
+  </si>
+  <si>
+    <t>BUT these two events (E and F) are NOT "mutually exclusive" as there is one intersection</t>
   </si>
 </sst>
 </file>
@@ -198,9 +228,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,13 +255,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>163137</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -285,13 +316,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -346,13 +377,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -407,13 +438,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>90983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -468,13 +499,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -529,13 +560,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -590,13 +621,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>108736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>124292</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -651,13 +682,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>164284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -712,13 +743,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -773,13 +804,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -834,13 +865,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -873,6 +904,250 @@
         <a:xfrm>
           <a:off x="3371850" y="23107650"/>
           <a:ext cx="4191000" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>13506</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A87C0B-F180-CCE7-2B71-871C66DCDCB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2590800" y="24755476"/>
+          <a:ext cx="6153150" cy="1356530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>83047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6272F446-1DA4-3F3E-4D63-88588CC49E8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3238500" y="27134047"/>
+          <a:ext cx="5591175" cy="3260228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447070</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA48282-2D83-90EA-9F76-ABAEF6958DA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3324225" y="32175450"/>
+          <a:ext cx="5657245" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA075E1-0B3A-E36B-C8A1-796C044BC5FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9505950" y="32270700"/>
+          <a:ext cx="1733550" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1191,15 +1466,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4740CE6-797E-4A3B-BA56-DD64BD6AC912}">
-  <dimension ref="A1:S115"/>
+  <dimension ref="A1:S184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="N115" sqref="N115"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1207,240 +1482,285 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3.1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="G17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>3.1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="J20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
+    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="S30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="R39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" t="s">
+    <row r="46" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G32" t="s">
+    <row r="69" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G34" t="s">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="S37" s="1" t="s">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="R46" t="s">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G51" t="s">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G63" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S76" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="J89" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+    <row r="177" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E115" t="s">
+    <row r="178" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F179" t="s">
+        <v>46</v>
+      </c>
+      <c r="G179" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F180" t="s">
+        <v>48</v>
+      </c>
+      <c r="G180" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="181" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F181" t="s">
+        <v>51</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H181" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="182" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F182" t="s">
+        <v>52</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H182" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G183" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="184" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G184" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
